--- a/src/nano_motor_adaptor_foxy/nano上下位机通信协议.xlsx
+++ b/src/nano_motor_adaptor_foxy/nano上下位机通信协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27675" windowHeight="9300"/>
+    <workbookView windowWidth="26715" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>上位机(raspberry) -------&gt;下位机(stm32)</t>
   </si>
@@ -120,9 +120,6 @@
     <t>0xff</t>
   </si>
   <si>
-    <t>0xfc</t>
-  </si>
-  <si>
     <t>下位机收到tag=‘i’后，下位机将imu的原始数据(单位 m)*1000，然后分别分为高、低八位打包，通过串口传输。</t>
   </si>
   <si>
@@ -257,10 +254,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -294,20 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -317,6 +300,52 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -325,29 +354,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,6 +376,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -369,9 +413,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,52 +424,6 @@
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -447,19 +444,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,13 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,36 +618,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -526,108 +625,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,14 +639,14 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,20 +654,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -679,48 +676,57 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -743,7 +749,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,21 +810,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -797,177 +818,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -975,55 +972,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,14 +1096,14 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>601345</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1" descr="电机状态"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1118,7 +1115,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13923645" y="4829175"/>
+          <a:off x="13923645" y="4591050"/>
           <a:ext cx="7708265" cy="6680835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1138,14 +1135,14 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>178435</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2" descr="下位机imu数据格式"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1156,7 +1153,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11043285" y="6905625"/>
+          <a:off x="11043285" y="6581775"/>
           <a:ext cx="2668905" cy="2454910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1287,7 +1284,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1311,9 +1308,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1337,7 +1334,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1390,7 +1387,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1415,7 +1412,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1430,24 +1427,24 @@
   <dimension ref="A2:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:M34"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11.1266666666667" customWidth="true"/>
-    <col min="4" max="4" width="11.62" customWidth="true"/>
-    <col min="5" max="5" width="10.84" customWidth="true"/>
-    <col min="6" max="6" width="10.1266666666667" customWidth="true"/>
-    <col min="7" max="7" width="10.8733333333333" customWidth="true"/>
-    <col min="8" max="8" width="11.6266666666667" customWidth="true"/>
-    <col min="9" max="9" width="11.2533333333333" customWidth="true"/>
-    <col min="10" max="10" width="12.4066666666667" customWidth="true"/>
-    <col min="11" max="11" width="12" customWidth="true"/>
-    <col min="12" max="12" width="11.8866666666667" customWidth="true"/>
-    <col min="13" max="13" width="11.9" customWidth="true"/>
-    <col min="14" max="14" width="12.02" customWidth="true"/>
-    <col min="15" max="15" width="11.1133333333333" customWidth="true"/>
+    <col min="3" max="3" width="11.1266666666667" customWidth="1"/>
+    <col min="4" max="4" width="11.62" customWidth="1"/>
+    <col min="5" max="5" width="10.84" customWidth="1"/>
+    <col min="6" max="6" width="10.1266666666667" customWidth="1"/>
+    <col min="7" max="7" width="10.8733333333333" customWidth="1"/>
+    <col min="8" max="8" width="11.6266666666667" customWidth="1"/>
+    <col min="9" max="9" width="11.2533333333333" customWidth="1"/>
+    <col min="10" max="10" width="12.4066666666667" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="11.8866666666667" customWidth="1"/>
+    <col min="13" max="13" width="11.9" customWidth="1"/>
+    <col min="14" max="14" width="12.02" customWidth="1"/>
+    <col min="15" max="15" width="11.1133333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -1642,7 +1639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" ht="18.75" spans="1:11">
+    <row r="11" ht="16.5" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1691,7 +1688,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -1714,7 +1711,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1752,52 +1749,52 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
         <v>30</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>31</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>32</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>33</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>34</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>35</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>36</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>37</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>39</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>40</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>41</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>42</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>43</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="W17" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1811,58 +1808,58 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
         <v>46</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>47</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>48</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>49</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>50</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>51</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>52</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>53</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>54</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>55</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>56</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>57</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>59</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>60</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>61</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>62</v>
-      </c>
-      <c r="U18" t="s">
-        <v>63</v>
       </c>
       <c r="V18" t="s">
         <v>16</v>
@@ -1870,7 +1867,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1882,7 +1879,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1894,7 +1891,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1914,9 +1911,9 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
     </row>
-    <row r="24" ht="15" customHeight="true" spans="1:18">
+    <row r="24" customHeight="1" spans="1:18">
       <c r="A24" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1938,7 +1935,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1955,7 +1952,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1972,7 +1969,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -2002,7 +1999,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" ht="12" customHeight="true" spans="1:13">
+    <row r="29" ht="12" customHeight="1" spans="1:13">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2017,7 +2014,7 @@
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" hidden="true" spans="1:13">
+    <row r="30" hidden="1" spans="1:13">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2034,7 +2031,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
